--- a/App/django_files/order-mod.xlsx
+++ b/App/django_files/order-mod.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,9 +451,5209 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="n">
+        <v>58528</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری ارتک 20 میل هانی مون</t>
+        </is>
+      </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>58529</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری ارتک 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>58530</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری ارتک 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>58531</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری اژین 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>58532</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری اژین 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>58533</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری اژین 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>58534</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری اژین 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>58535</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آرام 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>58536</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آرام 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>58537</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آرام 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>58538</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آرام 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>58540</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آسمان 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>58541</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آسمان 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>58544</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آمز 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>58545</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آمز 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>58546</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آمز 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>58547</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آمز 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>58548</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آوا 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>58549</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آوا 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>58550</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آوا 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>58552</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آوات 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>58553</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آوات 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>58556</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آیسو 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>58557</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آیسو 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>58558</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آیسو 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>58559</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آیسو 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>58564</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آیهان 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>58565</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آیهان 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>58566</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آیهان 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>58567</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آیهان 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>58569</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری بست اف کرید 10 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>58570</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری بست اف کرید 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>58571</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری بست اف کرید 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>58572</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری بست اف کرید 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>58573</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری بست اف کرید 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>58576</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری بلاسم 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>58577</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری بلاسم 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>58578</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری بلاسم 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>58579</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری پی اس 10 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>58580</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری پی اس 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>58581</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری پی اس 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>58582</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری پی اس 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>58583</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری تارا 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>58584</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری تارا 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>58585</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری تارا 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>58586</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری تارا 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>58588</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری تروی 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>58589</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری تروی 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>58590</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری تروی 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>58591</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری تروی 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>58593</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری دی اچ 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>58594</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری دی اچ 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>58595</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری دی اچ 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>58596</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری دی اچ 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>58598</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری طیلا 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>58599</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری طیلا 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58600</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری طیلا 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58601</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری طیلا 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58602</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری کارن تاپ 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>58604</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری کارن تاپ 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>58605</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری کارن تاپ 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>58608</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری کارن ایکستریم 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>58609</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری کارن ایکستریم 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>58610</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری کارن ایکستریم 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>58614</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری کرید اونتوس ایکستریم 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>58616</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری کرید اونتوس ایکستریم 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>58618</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری کرید اونتوس تاپ 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>58619</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری اونتوس تاپ 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>58620</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری کرید اونتوس تاپ 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>58621</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری لهوم اولتایم 10 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>58623</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری لهوم اولتایم 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>58624</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری لهوم اولتایم 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری لهوم اولتایم 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>58626</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری لهوم اولتایم 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>58628</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری لولا 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>58629</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری لولا 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>58630</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری لولا 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>58631</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری لولا 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>58632</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری لولا ایکستریم 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>58633</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری لولا ایکستریم 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>58636</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری لیان 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>58637</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری لیان 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>58638</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری لیان 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>58639</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری لیان 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>58640</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری ناتیکا 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>58641</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری ناتیکا 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>58642</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری ناتیکا 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>58649</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری هات نایت ز 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>58650</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری هات نایت ز 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>58651</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری هات نایت ز 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>58652</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری هات نایت ز 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>58654</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری هات نایت م 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>58655</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری هات نایت م 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>58656</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری هات نایت م 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>58657</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری هات نایت م 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>58659</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری هانا 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>58660</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری هانا 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>58661</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری هانا 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>58662</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری هانا 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>58664</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری اچ ام 1 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>58665</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری اچ ام 1 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>58666</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری اچ ام 1 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>58667</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری اچ ام 1 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>58669</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری اچ ام 2 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>58670</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری اچ ام 2 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>58671</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری اچ ام 2 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>58672</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری اچ ام 3 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>58673</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری اچ ام 3 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>58674</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری اچ ام 3 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>58678</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری اچ ام 2 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>58683</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری هیرو ایکستریم 10 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>58684</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری هیرو ایکستریم 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>58688</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری هیلا ایکستریم 10 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>58689</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری هیلا ایکستریم 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>58692</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری هیرو 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>58693</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری هیرو 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری هیرو 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>58695</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری هیلا 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>58696</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری هیلا 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>58697</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری هیلا 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>58698</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری هیلا 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>58699</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری هیلا ایکستریم 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>58700</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری وایلت 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>58701</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری وایلت 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>58702</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری وایلت 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>58703</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری وایلت 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>58707</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری ونوم ایکستریم 10 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>58709</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری ونوم ایکستریم 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>58710</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری ونوم ایکستریم 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>58711</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری ونوم ایکستریم 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>58712</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری ونوم ایکستریم 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>58717</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری پلاتینیوم 10 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>58729</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری پلاتینیوم 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>58730</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری 212 سکسی زنانه 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>58731</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری 212 سکسی مردانه 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>58732</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ابر کرومبی 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>58733</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری اپن 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>58734</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری اپن تاپ ایکستریم 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>58736</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری اسپلندور مشکی 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>58740</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری اسکندال 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>58742</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری اکلت 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>58744</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری اکوا بولگاری 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>58747</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری الین 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>58749</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ایفوریا 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>58752</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری اینکانتو 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>58753</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری اینوکتوس اکوا 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>58756</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری آلور اسپرت شانل 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>58760</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری باکارات رژ 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>58762</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری برایت کریستال 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>58764</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری افکانو ایکستریم 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>58765</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری بلو شانل تاپ 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری بمب 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>58768</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری بوگارت گرید یک 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>58773</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری تام فورد تاپ 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>58774</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری تام فورد توباکو وانیل 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>58775</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری تام فورد گری وتیور 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>58776</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ترنزی 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>58777</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ترنزی ایکستریم 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>58780</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری جادور 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>58782</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری جنیفر 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>58783</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری جنیفر تاپ ایکستریم 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>58785</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری چلسی 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>58788</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری دات 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>58789</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری دانهیل قهوه ای 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>58791</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری دورو ناسوماتو 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>58795</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری دیزایر بلو 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>58797</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری رالف صورتی 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>58798</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری رجینا 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>58800</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری زن شی سیدو ایکستریم 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>58801</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری سزار 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>58802</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری سوئیت لاو 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>58803</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری سی اچ تاپ 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>58805</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری سیلورسنت بوگارت20x میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>58806</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری شانل چنس تاپ 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>58807</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری شانل چنس ایکستریم 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>58809</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری فارنهایت 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>58812</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کاپتان بلک 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>58815</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کارتیر پاشا ایکس 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>58816</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کالکشن 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>58819</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کرید سیلور مانتین تاپ 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>58822</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کریکت 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>58825</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کوکو شنل ایکستریم 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>58826</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کول واتر آبی 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>58827</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کینگ 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>58828</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کینگ تاپ ایکستریم 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>58832</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری گودگرل 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>58833</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری گودگرل تاپ ایکستریم 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>58834</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لاگوست بلو 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>58835</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لاگوست سبز 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>58836</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لالیک ساتین 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>58837</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لالیک لامور 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>58839</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لالیک نویر 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>58841</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لاویست بله 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>58842</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لاویست بله تاپ ایکستریم 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>58843</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لایت بلو 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>58844</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لائورا 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>58846</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لولیتا 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>58848</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لیتون مارلی 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>58849</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لیدی گاگا ایکستریم 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>58853</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری مفیستو کازاموراتی 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>58854</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری مگامار 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>58855</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ملکول 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>58857</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری منیفستو ایوسن لورن 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>58859</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری مون لایت 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>58861</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری میس دیور چری 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>58862</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری نادی نیو 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>58866</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری واترمانی 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>58868</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری وان میلیون 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>58870</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ورساچ اروس 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>58871</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ورساچ پورهوم 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>58872</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ورساچ نویر 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>58873</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ورساچ نویر ایکس 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>58874</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ورسوز 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>58876</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری وویاج هرمس 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>58878</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ویکند ایکستریم 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>58880</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری هالووین 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>58882</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری هایر دیور 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>58883</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری هرمس تاپ 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>58884</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری هرود مارلی 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>58885</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری هوگو بوس 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>58888</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری پگاسوس مارلی 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>58889</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری زن شی سیدو 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>58891</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری مونت بلک لجند 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>58892</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری پلاتینیوم 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>58894</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری 212 سکسی مردانه 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>58895</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ابر کرومبی 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>58896</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری اپن 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>58897</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری اپن تاپ ایکستریم 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>58899</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری اسپلندور مشکی 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>58900</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری اسپیس 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>58903</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری اسکندال 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>58904</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری اسی میاکی بلو 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>58905</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری اکلت 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>58907</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری اکوا بولگاری 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>58908</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری اله ایوسن لورن 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>58912</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ایفوریا 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>58914</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری اینترلود آمواژ 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>58915</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری اینکانتو 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>58916</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری اینوکتوس اکوا 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>58922</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری آنر امواج 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>58923</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری باکارات رژ 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>58925</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری برایت کریستال 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>58927</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری افکانو ایکستریم 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>58928</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری بلو شانل تاپ 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>58929</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری بمب 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>58931</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری بوگارت گرید یک 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>58936</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری تام فورد تاپ 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>58937</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری تام فورد توباکو وانیل 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>58938</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری تام فورد گری وتیور 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>58939</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ترنزی 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>58943</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری جادور 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>58945</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری جنیفر 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>58948</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری چلسی 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>58951</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری دات 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>58952</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری دانهیل قهوه ای 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>58958</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری دیزایر بلو 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>58959</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری دیورهوم اسپرت 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>58960</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری رالف صورتی 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>58961</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری رجینا 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>58964</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری سزار 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>58965</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری سوئیت لاو 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>58969</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری شانل چنس تاپ 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>58970</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری شانل چنس تاپ ایکستریم 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>58974</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری فمینین پلوریل 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>58975</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کاپتان بلک 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>58976</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کاپتان بلک زرد 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>58977</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کارتیر پاشا تاپ 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>58979</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کالکشن 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>58980</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کامندنت 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>58982</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کرید سیلور مانتین 30x میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>58984</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کرید وایکینگ 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>58985</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کریکت 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>58987</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کوکو شنل 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>58989</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کول واتر آبی 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>58990</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کینگ 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>58991</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کینگ ایکستریم 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری گودگرل 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>58997</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لاگوست بلو 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>58999</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لالیک ساتین 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>59000</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لالیک لامور 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>59002</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لالیک نویر 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>59004</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لاویست بله 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>59006</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لایت بلو 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>59007</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لائورا 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>59008</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لوچیانو 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>59009</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لولیتا 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>59010</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لووه 7 استیل 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>59011</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لیتون مارلی 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>59012</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لیدی گاگا ایکستریم 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>59016</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری مفیستو کازاموراتی 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>59018</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ملکول 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>59020</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری منیفستو ایوسن لورن 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>59022</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری مون لایت 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>59023</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری میراژ 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>59025</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری نادی نیو 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>59028</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری نو لیمیت فیلیپ 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>59029</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری واترمانی 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>59033</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ورساچ اروس 30 م هانی مون</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>59035</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ورساچ نویر 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>59038</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری وومنیتی تری موگلر 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>59039</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری وویاج هرمس 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>59040</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ویکند 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>59041</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ویکند ایکستریم 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>59043</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری هالووین 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>59045</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری هایر دیور 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>59046</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری هرمس تاپ 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>59048</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری هوگو بوس 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>59049</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری هیندوگراس 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>59051</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری پگاسوس مارلی 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>59052</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری زن شی سیدو 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>59054</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لیدی گاگا 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>59055</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری مونت بلک لجند 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>59056</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری باکارات رژ 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>59057</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری پلاتینیوم 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>59060</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ابر کرومبی 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>59061</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری اپن 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>59064</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری اسپلندور مشکی 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>59068</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری اسکندال 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>59070</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری اکلت 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>59077</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ایفوریا 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>59079</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری اینترلود آمواژ 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>59080</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری اینکانتو 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>59091</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری افکانو ایکستریم 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>59092</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری بلو شانل تاپ 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>59093</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری بمب 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>59095</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری بوگارت گرید یک 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>59100</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری تام فورد تاپ 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>59101</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری تام فورد توباکو وانیل 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>59102</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری تام فورد گری وتیور 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>59103</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ترنزی 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>59104</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ترنزی تاپ ایکستریم 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>59107</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری جادور 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>59109</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری جنیفر 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>59112</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری چلسی 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>59115</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری دات 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>59116</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری دانهیل قهوه ای 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>59122</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری دیزایر بلو 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>59124</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری رالف صورتی 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>59128</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری سزار 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>59129</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری سوئیت لاو 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>59130</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری سی اچ تاپ 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>59132</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری سیلورسنت بوگارت ایکستریم 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>59133</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری شانل چنس تاپ 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>59141</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کارتیر پاشا تاپ 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>59143</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کالکشن 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>59146</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کرید سیلور مانتین تاپ 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>59149</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کریکت 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>59151</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کوکو شنل 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>59152</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کوکو شنل ایکستریم 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>59153</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کول واتر آبی 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>59154</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری کینگ 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>59159</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری گودگرل 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>59163</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لالیک ساتین 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>59164</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لالیک لامور 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>59166</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لالیک نویر 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>59173</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لولیتا 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>59174</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لووه 7 استیل 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>59175</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لیتون مارلی 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>59176</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری لیدی گاگا ایکستریم 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>59180</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری مفیستو کازاموراتی 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>59182</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ملکول 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>59186</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری مون لایت 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>59189</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری نادی نیو 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>59193</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری واترمانی 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>59197</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ورساچ اروس 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>59199</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ورساچ نویر 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>59203</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری وویاج هرمس 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>59205</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ویکند ایکستریم 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>59207</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری هالووین 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری هاواک 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>59210</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری هرمس تاپ 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>59212</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری هوگو بوس 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>59215</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری پگاسوس مارلی 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>59216</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری زن شی سیدو 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>59218</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری مونت بلک لجند 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>59224</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری پی اس 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>59231</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری ناتیکا 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>62111</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری دی اچ 12 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>62112</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آمز 12 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>62191</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری هیرو 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>74647</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری آیسو - 100 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>74718</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ملکول گرید دو 100 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>75205</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری سانتال 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>75206</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری سانتال 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>75209</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری فاکینگ فبیولس 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>75210</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری فاکینگ فبیولس 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>75311</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری فاکینگ فبیولس 20 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>80432</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری ریور - 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>80433</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری ریور - 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>80434</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری ریور - 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>80436</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری ویند - 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>80437</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری ویند - 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>80439</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری ویند - 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>80441</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری مونتین - 15 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>80443</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری مونتین - 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>80444</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری مونتین - 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>80457</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری دزرت - 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>80460</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری سان - 30 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>80461</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم انحصاری سان - 50 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>81945</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>نیش پرفیوم تجاری ملکول 10 میل هانی مون</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr"/>
+      <c r="B402" t="inlineStr"/>
+      <c r="C402" t="n">
         <v>2953</v>
       </c>
     </row>
